--- a/IAEA/值班表/ITF-小学期空课表.xlsx
+++ b/IAEA/值班表/ITF-小学期空课表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\ITF\IAEA\值班表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE41F83-62A3-4E8A-9E32-C707DFA245C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C267B866-540D-40A2-854A-8C04844A7BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="593" yWindow="1740" windowWidth="17070" windowHeight="9540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -587,7 +587,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -639,7 +639,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>18</v>
@@ -648,7 +648,7 @@
         <v>17</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>16</v>
@@ -660,7 +660,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>18</v>
@@ -669,7 +669,7 @@
         <v>17</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>16</v>

--- a/IAEA/值班表/ITF-小学期空课表.xlsx
+++ b/IAEA/值班表/ITF-小学期空课表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\ITF\IAEA\值班表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C267B866-540D-40A2-854A-8C04844A7BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3144C2E0-F9F7-41FE-8423-3D604072ED17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="593" yWindow="1740" windowWidth="17070" windowHeight="9540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,9 +61,6 @@
     <t>晚自习</t>
   </si>
   <si>
-    <t>全员</t>
-  </si>
-  <si>
     <t>曹品硕</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -89,6 +86,10 @@
   </si>
   <si>
     <t>满课</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>不作要求</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -96,7 +97,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +127,14 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
@@ -264,7 +273,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -303,6 +312,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -587,7 +599,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -639,19 +651,19 @@
         <v>8</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>16</v>
-      </c>
       <c r="F3" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" s="3"/>
     </row>
@@ -660,19 +672,19 @@
         <v>9</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>16</v>
-      </c>
       <c r="F4" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4" s="5"/>
     </row>
@@ -681,19 +693,19 @@
         <v>10</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="G5" s="3"/>
     </row>
@@ -702,19 +714,19 @@
         <v>11</v>
       </c>
       <c r="B6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>20</v>
       </c>
       <c r="G6" s="5"/>
     </row>
@@ -722,21 +734,21 @@
       <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>13</v>
+      <c r="B7" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="F7" s="7"/>
-      <c r="G7" s="6" t="s">
-        <v>13</v>
+      <c r="G7" s="13" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
